--- a/exports/UD_French-FQB/VERB-indirect-onj.xlsx
+++ b/exports/UD_French-FQB/VERB-indirect-onj.xlsx
@@ -1,37 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+  <si>
+    <t>sent_id</t>
+  </si>
+  <si>
+    <t>left_context</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>right_context</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>LEMMA</t>
+  </si>
+  <si>
+    <t>UPOS</t>
+  </si>
+  <si>
+    <t>XPOS</t>
+  </si>
+  <si>
+    <t>FEATS</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>DEPREL</t>
+  </si>
+  <si>
+    <t>DEPS</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>FQB_CLEF03-118</t>
+  </si>
+  <si>
+    <t>FQB_CLEF03-166</t>
+  </si>
+  <si>
+    <t>FQB_Impots-14</t>
+  </si>
+  <si>
+    <t>FQB_Impots-39</t>
+  </si>
+  <si>
+    <t>FQB_PoleEmploi-28</t>
+  </si>
+  <si>
+    <t>FQB_TREC-fr-403-imp</t>
+  </si>
+  <si>
+    <t>FQB_TREC-fr-577</t>
+  </si>
+  <si>
+    <t>FQB_TREC-fr-757</t>
+  </si>
+  <si>
+    <t>FQB_TREC-fr-1858-imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le nom de la station de métro où a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le mois où est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand et comment va-t-on me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai égaré mes identifiants me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre employeur ne vous a pas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouvez-vous me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle boisson gazeuse me </t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>entré</t>
+  </si>
+  <si>
+    <t>verser</t>
+  </si>
+  <si>
+    <t>permettant</t>
+  </si>
+  <si>
+    <t>proposé</t>
+  </si>
+  <si>
+    <t>Dites</t>
+  </si>
+  <si>
+    <t>nommer</t>
+  </si>
+  <si>
+    <t>procurerait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lieu l'attaque au sarin à Tokyo ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> en vigueur l'embargo de l'ONU sur le pétrole visant Haïti ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la prime pour l'emploi ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d'accéder à mon espace personnel, comment puis-je les obtenir ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d'adhérer au CSP ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-moi près de quelle ville se trouve le parc Kentucky Horse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> un horloger de Londres, en Angleterre ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la plus grande quantité de caféine ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-moi où est située la compagnie DuPont. </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>avoir</t>
+  </si>
+  <si>
+    <t>entrer</t>
+  </si>
+  <si>
+    <t>permettre</t>
+  </si>
+  <si>
+    <t>proposer</t>
+  </si>
+  <si>
+    <t>dites</t>
+  </si>
+  <si>
+    <t>procurer</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Gender=Masc|Number=Sing|Tense=Past|VerbForm=Part</t>
+  </si>
+  <si>
+    <t>VerbForm=Inf</t>
+  </si>
+  <si>
+    <t>Tense=Pres|VerbForm=Part</t>
+  </si>
+  <si>
+    <t>Mood=Imp|VerbForm=Fin</t>
+  </si>
+  <si>
+    <t>Mood=Cnd|Number=Sing|Person=3|Tense=Pres|VerbForm=Fin</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>acl:relcl</t>
+  </si>
+  <si>
+    <t>xcomp</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>SpaceAfter=No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +267,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,232 +583,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sent_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>left_context</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pivot</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>right_context</t>
-        </is>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FQB_CLEF03-118</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quel est le nom de la station de métro où a </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>eu</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> lieu l'attaque au sarin à Tokyo ? </t>
-        </is>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FQB_CLEF03-166</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quel est le mois où est </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>entré</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> en vigueur l'embargo de l'ONU sur le pétrole visant Haïti ? </t>
-        </is>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FQB_Impots-14</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand et comment va-t-on me </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>verser</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> la prime pour l'emploi ? </t>
-        </is>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FQB_Impots-39</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">J'ai égaré mes identifiants me </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>permettant</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> d'accéder à mon espace personnel, comment puis-je les obtenir ? </t>
-        </is>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FQB_PoleEmploi-28</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Votre employeur ne vous a pas </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>proposé</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> d'adhérer au CSP ? </t>
-        </is>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FQB_TREC-fr-403-imp</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dites</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-moi près de quelle ville se trouve le parc Kentucky Horse. </t>
-        </is>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FQB_TREC-fr-577</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pouvez-vous me </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nommer</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> un horloger de Londres, en Angleterre ? </t>
-        </is>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FQB_TREC-fr-757</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelle boisson gazeuse me </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>procurerait</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> la plus grande quantité de caféine ? </t>
-        </is>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FQB_TREC-fr-1858-imp</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dites</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-moi où est située la compagnie DuPont. </t>
-        </is>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>